--- a/trend_results/Rivers/WaitangiatdsWaiouruSTP_4ec3c3c8aa.xlsx
+++ b/trend_results/Rivers/WaitangiatdsWaiouruSTP_4ec3c3c8aa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.168937424369248</v>
+        <v>0.831062575630752</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.0026766905855793</v>
+        <v>0.997323309414421</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1831,7 +1831,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0010234758308056</v>
+        <v>0.998976524169194</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.971539176207873</v>
+        <v>0.028460823792127</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely likely increasing</t>
+          <t>Extremely unlikely increasing</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2891,6 +2891,1094 @@
         </is>
       </c>
       <c r="W27" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Waitangi at d/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Chlorophyll A</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>15</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.999999919370902</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.6163522012578621</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>-3.81794425087108</v>
+      </c>
+      <c r="L28" t="n">
+        <v>-5.29866620247495</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-2.51297188312835</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-10.4601212352632</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>1828659.395</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5628533.029</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Waitangi at d/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Dissolved Oxygen Concentration</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15</v>
+      </c>
+      <c r="D29" t="b">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>0.762095410340403</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.7305389221556891</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.0094058390259506</v>
+      </c>
+      <c r="L29" t="n">
+        <v>-0.0135641841278944</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.029409084526437</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.0927597537076002</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Likely increasing</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>1828659.395</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5628533.029</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Waitangi at d/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Dissolved Reactive Phosphorus</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>15</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.999999999999998</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.447674418604651</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-0.0033535046518137</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.0039624818513103</v>
+      </c>
+      <c r="M30" t="n">
+        <v>-0.0027883235089098</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-7.79884802747381</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>1828659.395</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5628533.029</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Waitangi at d/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0465116279069767</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.563953488372093</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>58</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-29.7514623663258</v>
+      </c>
+      <c r="L31" t="n">
+        <v>-46.9910135517632</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-20.0945716058324</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-51.2956247695273</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>1828659.395</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5628533.029</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Waitangi at d/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>15</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.602484472049689</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.409937888198758</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-0.0019637848426129</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-0.0031278391362914</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-39.2756968522582</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>1828659.395</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5628533.029</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Waitangi at d/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.269736842105263</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.177631578947368</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-0.0009274958144917</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-0.0011370632998962</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-0.0007322248349894</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-23.1873953622927</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>1828659.395</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5628533.029</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Waitangi at d/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="b">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>0.9999999904367231</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.908496732026144</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.318</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-0.0152538824763903</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-0.0203030119443396</v>
+      </c>
+      <c r="M34" t="n">
+        <v>-0.0104938171482918</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-4.796818388802</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>1828659.395</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5628533.029</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Waitangi at d/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>15</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.995980236386269</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.595238095238095</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>7.615</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.017737443862787</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.0071292554147672</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.030472935134128</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.23292769353627</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Virtually certain increasing</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>1828659.395</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5628533.029</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Waitangi at d/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.761627906976744</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-0.0308144690599183</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-0.0361492720479953</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0.0253112785610267</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-8.631503938352459</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1828659.395</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5628533.029</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Waitangi at d/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.552325581395349</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.4275</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-0.0347857142857143</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0408932316705052</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.0290804140127389</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-8.13700918964077</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1828659.395</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5628533.029</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Waitangi at d/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.523255813953488</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.0495</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-0.0050812297018643</v>
+      </c>
+      <c r="L38" t="n">
+        <v>-0.0060350944727772</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-0.0041732356511212</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-10.2651105088169</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1828659.395</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5628533.029</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Waitangi at d/s Waiouru STP</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.997448377159607</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.825581395348837</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.665</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.0398630688144321</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.0643318887383698</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-0.0148857191570602</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-2.3941783071731</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1828659.395</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5628533.029</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Upper Whangaehu</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Whau_1b</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/WaitangiatdsWaiouruSTP_4ec3c3c8aa.xlsx
+++ b/trend_results/Rivers/WaitangiatdsWaiouruSTP_4ec3c3c8aa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W39"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.986711118317492</v>
+        <v>0.97432583371837</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.758620689655172</v>
+        <v>0.779661016949153</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.25</v>
+        <v>19</v>
       </c>
       <c r="K2" t="n">
-        <v>-4.75033356372926</v>
+        <v>-3.35545407137567</v>
       </c>
       <c r="L2" t="n">
-        <v>-9.04115661561398</v>
+        <v>-7.54522509455267</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.53017155719279</v>
+        <v>-1.07583213943017</v>
       </c>
       <c r="N2" t="n">
-        <v>-18.8132022325911</v>
+        <v>-17.6602845861877</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.831062575630752</v>
+        <v>0.865596628226167</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -676,19 +676,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.205</v>
+        <v>10.265</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0362844638913717</v>
+        <v>0.0325275875440347</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.0264723485985726</v>
+        <v>-0.0100650221456961</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0799505306391196</v>
+        <v>0.06990430622009559</v>
       </c>
       <c r="N3" t="n">
-        <v>0.355555746118292</v>
+        <v>0.316878592732924</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.0644382725763048</v>
+        <v>0.161440385770985</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.610169491525424</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.034</v>
+        <v>0.03</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0022203647416413</v>
+        <v>0.0011161191749427</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>-0.0007195087066618</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0045203371025632</v>
+        <v>0.0032474947572889</v>
       </c>
       <c r="N4" t="n">
-        <v>6.53048453423921</v>
+        <v>3.72039724980901</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -838,21 +838,21 @@
         <v>5</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.470562923342536</v>
+        <v>0.009964328959578101</v>
       </c>
       <c r="G5" t="n">
         <v>0.101694915254237</v>
       </c>
       <c r="H5" t="n">
-        <v>0.338983050847458</v>
+        <v>0.355932203389831</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -861,16 +861,16 @@
         <v>16</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>2.82046332046332</v>
       </c>
       <c r="L5" t="n">
-        <v>-3.36747650962099</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.98775510204082</v>
+        <v>5.64092664092664</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>17.6278957528958</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -933,15 +933,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>&lt; 3 unique values</t>
+          <t>&lt; 5 Non-censored values</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>0.96078431372549</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0588235294117647</v>
+        <v>0.0740740740740741</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -1016,10 +1016,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.663683328918338</v>
+        <v>0.999031230761441</v>
       </c>
       <c r="G7" t="n">
-        <v>0.508474576271186</v>
+        <v>0.593220338983051</v>
       </c>
       <c r="H7" t="n">
         <v>0.11864406779661</v>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.0648172904395064</v>
+        <v>0.786360546914012</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.932203389830508</v>
+        <v>0.966101694915254</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.268</v>
+        <v>0.267</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0114845417974882</v>
+        <v>-0.0060206043956044</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.000801369274064</v>
+        <v>-0.0157307860922318</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0175452142807606</v>
+        <v>0.009136745624981299</v>
       </c>
       <c r="N8" t="n">
-        <v>4.28527679010755</v>
+        <v>-2.25490801333498</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1198,31 +1198,31 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.997323309414421</v>
+        <v>0.744624496625872</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.741379310344828</v>
+        <v>0.724137931034483</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.6</v>
+        <v>7.635</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0993877551020409</v>
+        <v>0.0156535714285713</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0393157565443909</v>
+        <v>-0.0217487939586533</v>
       </c>
       <c r="M9" t="n">
-        <v>0.161218318022287</v>
+        <v>0.0627458440494591</v>
       </c>
       <c r="N9" t="n">
-        <v>1.3077336197637</v>
+        <v>0.205023856300869</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1285,31 +1285,31 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.0484690942141995</v>
+        <v>0.786360546914012</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.779661016949153</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.276</v>
+        <v>0.275</v>
       </c>
       <c r="K10" t="n">
-        <v>0.011410360744266</v>
+        <v>-0.004243092621664</v>
       </c>
       <c r="L10" t="n">
-        <v>-9.41425025191404e-05</v>
+        <v>-0.015232906033336</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0192288069014881</v>
+        <v>0.0079660926083105</v>
       </c>
       <c r="N10" t="n">
-        <v>4.1341886754587</v>
+        <v>-1.5429427715142</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1376,31 +1376,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.187521811779306</v>
+        <v>0.385345292220081</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0169491525423729</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.288135593220339</v>
+        <v>0.491525423728814</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>6</v>
+        <v>0.34</v>
       </c>
       <c r="K11" t="n">
-        <v>0.496938775510204</v>
+        <v>0.0041464318211361</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.187042516979325</v>
+        <v>-0.0066895604395604</v>
       </c>
       <c r="M11" t="n">
-        <v>1.00343406593407</v>
+        <v>0.0148282594178525</v>
       </c>
       <c r="N11" t="n">
-        <v>8.28231292517007</v>
+        <v>1.21953877092238</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1452,14 +1452,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1467,31 +1467,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.0170535825986261</v>
+        <v>0.0023811548168652</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.491525423728814</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.35</v>
+        <v>0.037</v>
       </c>
       <c r="K12" t="n">
-        <v>0.012400930437487</v>
+        <v>0.0030693277310924</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0045471509593003</v>
+        <v>0.0012532978628899</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0199972921891123</v>
+        <v>0.0053765576257108</v>
       </c>
       <c r="N12" t="n">
-        <v>3.54312298213915</v>
+        <v>8.295480354303891</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1558,31 +1558,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.0407160037182969</v>
+        <v>0.307265658568189</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.576271186440678</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.037</v>
+        <v>1.65</v>
       </c>
       <c r="K13" t="n">
-        <v>0.002484693877551</v>
+        <v>0.0282046332046332</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>-0.0769759895546033</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0046858226391348</v>
+        <v>0.150780202118909</v>
       </c>
       <c r="N13" t="n">
-        <v>6.715388858246</v>
+        <v>1.70937170937171</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1622,7 +1622,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1634,11 +1634,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1649,31 +1649,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.5</v>
+        <v>0.999571461746546</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.932203389830508</v>
+        <v>0.637931034482759</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.65</v>
+        <v>25.5</v>
       </c>
       <c r="K14" t="n">
-        <v>0.009938775510203999</v>
+        <v>-2.75944368131868</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.121741809687028</v>
+        <v>-4.24910636298973</v>
       </c>
       <c r="M14" t="n">
-        <v>0.147269330514171</v>
+        <v>-1.37036541094292</v>
       </c>
       <c r="N14" t="n">
-        <v>0.60235003092146</v>
+        <v>-10.8213477698772</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1740,31 +1740,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.99937070830587</v>
+        <v>0.998535759079714</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.672413793103448</v>
+        <v>0.767241379310345</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>32</v>
+        <v>10.165</v>
       </c>
       <c r="K15" t="n">
-        <v>-3.1022604513079</v>
+        <v>0.0342129779467108</v>
       </c>
       <c r="L15" t="n">
-        <v>-4.71970604061611</v>
+        <v>0.0199993578778268</v>
       </c>
       <c r="M15" t="n">
-        <v>-1.52906556098632</v>
+        <v>0.0505754895130353</v>
       </c>
       <c r="N15" t="n">
-        <v>-9.694563910337189</v>
+        <v>0.33657627099568</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1804,7 +1804,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1816,14 +1816,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.998976524169194</v>
+        <v>0.977469379510874</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.767241379310345</v>
+        <v>0.394957983193277</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>10.125</v>
+        <v>0.033</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0413522825454555</v>
+        <v>-0.0007999342969776</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0222743183581422</v>
+        <v>-0.001458970104763</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0528821615463648</v>
+        <v>-0.0001205812934978</v>
       </c>
       <c r="N16" t="n">
-        <v>0.408417605387214</v>
+        <v>-2.42404332417473</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1907,14 +1907,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1922,31 +1922,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.9993878404566791</v>
+        <v>0.931787290989462</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.0672268907563025</v>
       </c>
       <c r="H17" t="n">
-        <v>0.470588235294118</v>
+        <v>0.310924369747899</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.037</v>
+        <v>21</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0017654403866809</v>
+        <v>-0.7147749510763211</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0026916515362687</v>
+        <v>-2.41607367964329</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.0008870437375279</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-4.77146050454321</v>
+        <v>-3.40369024322058</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2009,35 +2009,35 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.999998147485413</v>
+        <v>0.997514565261833</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0672268907563025</v>
+        <v>0.9090909090909089</v>
       </c>
       <c r="H18" t="n">
-        <v>0.403361344537815</v>
+        <v>0.109090909090909</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>25</v>
+        <v>0.005</v>
       </c>
       <c r="K18" t="n">
-        <v>-6.42197802197802</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-9.788720900271359</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>-3.57724630334083</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-25.6879120879121</v>
+        <v>0</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2100,35 +2100,35 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.999999994172166</v>
+        <v>0.99999999699242</v>
       </c>
       <c r="G19" t="n">
-        <v>0.827272727272727</v>
+        <v>0.436974789915966</v>
       </c>
       <c r="H19" t="n">
-        <v>0.190909090909091</v>
+        <v>0.117647058823529</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-0.0002790297937356</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-0.0003893923240938</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-0.0001198462557912</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-13.9514896867838</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2180,46 +2180,46 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.999999999915177</v>
+        <v>0.661930988577049</v>
       </c>
       <c r="G20" t="n">
-        <v>0.336134453781513</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.151260504201681</v>
+        <v>0.899159663865546</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.003</v>
+        <v>0.266</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.0005324344023323</v>
+        <v>-0.0010435714285714</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0007247023809523</v>
+        <v>-0.0052179057494635</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.0003648851148851</v>
+        <v>0.0039486569775627</v>
       </c>
       <c r="N20" t="n">
-        <v>-17.7478134110787</v>
+        <v>-0.392320085929107</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2271,14 +2271,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2286,31 +2286,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.894936576665363</v>
+        <v>0.260789746214135</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.915966386554622</v>
+        <v>0.5726495726495729</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.274</v>
+        <v>7.64</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.0028590998043052</v>
+        <v>-0.004665754454767</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0076684418470594</v>
+        <v>-0.0167881931819881</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0014826726660401</v>
+        <v>0.007986859925224001</v>
       </c>
       <c r="N21" t="n">
-        <v>-1.04346708186324</v>
+        <v>-0.0610700844864791</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2319,7 +2319,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2348,11 +2348,7 @@
           <t>Whau_1b</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2362,14 +2358,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2377,31 +2373,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.028460823792127</v>
+        <v>0.783576889989138</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5726495726495729</v>
+        <v>0.680672268907563</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>7.65</v>
+        <v>0.276</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0141023166023166</v>
+        <v>-0.0026758241758241</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.025699208769038</v>
+        <v>-0.0069988743651127</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.0017391170247682</v>
+        <v>0.0023426793355441</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.18434400787342</v>
+        <v>-0.969501512979775</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2410,7 +2406,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Extremely unlikely increasing</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2439,7 +2435,11 @@
           <t>Whau_1b</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2464,31 +2464,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.979380564794144</v>
+        <v>0.992124854201927</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.6890756302521009</v>
+        <v>0.453781512605042</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.296</v>
+        <v>0.36</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.007841042154566699</v>
+        <v>-0.0060496894409937</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0157888613838295</v>
+        <v>-0.0100343406593406</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.0021769024474064</v>
+        <v>-0.0024411773202924</v>
       </c>
       <c r="N23" t="n">
-        <v>-2.64900072789417</v>
+        <v>-1.68046928916494</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2497,7 +2497,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2540,46 +2540,46 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.654844467118892</v>
+        <v>0.927871976854416</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0168067226890756</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.226890756302521</v>
+        <v>0.394957983193277</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>6</v>
+        <v>0.039</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>-0.000479802955665</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.209770350473938</v>
+        <v>-0.0010096865823004</v>
       </c>
       <c r="M24" t="n">
-        <v>0.09113129061520329</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>-1.23026398888468</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2619,7 +2619,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2646,31 +2646,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.999989401088793</v>
+        <v>0.265317840615893</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.53781512605042</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.38</v>
+        <v>1.5</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.0173372889091739</v>
+        <v>0.0179926108374384</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0229132774571681</v>
+        <v>-0.0232353504149363</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.009970427661510401</v>
+        <v>0.05229026914896</v>
       </c>
       <c r="N25" t="n">
-        <v>-4.5624444497826</v>
+        <v>1.19950738916256</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2722,14 +2722,14 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2737,31 +2737,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.9999012180103209</v>
+        <v>0.999999998235672</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.445378151260504</v>
+        <v>0.596491228070175</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.04</v>
+        <v>35.5</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.0016877165960723</v>
+        <v>-3.56265374103177</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0026318139097744</v>
+        <v>-4.84029598144007</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.0009108694616591</v>
+        <v>-2.62731723381983</v>
       </c>
       <c r="N26" t="n">
-        <v>-4.21929149018098</v>
+        <v>-10.0356443409346</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -2813,11 +2813,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2828,31 +2828,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.69934929845702</v>
+        <v>0.991826562257522</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.882352941176471</v>
+        <v>0.70414201183432</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.52</v>
+        <v>10.14</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.0119950738916256</v>
+        <v>0.0240646386135946</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0551630156718381</v>
+        <v>0.0083153604022582</v>
       </c>
       <c r="M27" t="n">
-        <v>0.0323068906059788</v>
+        <v>0.0394888339319874</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.789149598133265</v>
+        <v>0.237323852205075</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2892,7 +2892,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -2919,31 +2919,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.999999919370902</v>
+        <v>0.999999999999998</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6163522012578621</v>
+        <v>0.431034482758621</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>36.5</v>
+        <v>0.038</v>
       </c>
       <c r="K28" t="n">
-        <v>-3.81794425087108</v>
+        <v>-0.0030941470927993</v>
       </c>
       <c r="L28" t="n">
-        <v>-5.29866620247495</v>
+        <v>-0.0037222309756264</v>
       </c>
       <c r="M28" t="n">
-        <v>-2.51297188312835</v>
+        <v>-0.0024902884974982</v>
       </c>
       <c r="N28" t="n">
-        <v>-10.4601212352632</v>
+        <v>-8.142492349472059</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2995,46 +2995,46 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>15</v>
       </c>
       <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
         <v>1</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>0.762095410340403</v>
-      </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0459770114942529</v>
       </c>
       <c r="H29" t="n">
-        <v>0.7305389221556891</v>
+        <v>0.505747126436782</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>10.14</v>
+        <v>48</v>
       </c>
       <c r="K29" t="n">
-        <v>0.0094058390259506</v>
+        <v>-19.2236842105263</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0135641841278944</v>
+        <v>-28.0923935780447</v>
       </c>
       <c r="M29" t="n">
-        <v>0.029409084526437</v>
+        <v>-13.6463743055263</v>
       </c>
       <c r="N29" t="n">
-        <v>0.0927597537076002</v>
+        <v>-40.0493421052632</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3074,7 +3074,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3097,35 +3097,35 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.652439024390244</v>
       </c>
       <c r="H30" t="n">
-        <v>0.447674418604651</v>
+        <v>0.359756097560976</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>0.043</v>
+        <v>0.005</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.0033535046518137</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.0039624818513103</v>
+        <v>-0.0017147793902369</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.0027883235089098</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>-7.79884802747381</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3188,35 +3188,35 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0465116279069767</v>
+        <v>0.323170731707317</v>
       </c>
       <c r="H31" t="n">
-        <v>0.563953488372093</v>
+        <v>0.164634146341463</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>58</v>
+        <v>0.003</v>
       </c>
       <c r="K31" t="n">
-        <v>-29.7514623663258</v>
+        <v>-0.0008181309109009</v>
       </c>
       <c r="L31" t="n">
-        <v>-46.9910135517632</v>
+        <v>-0.0009938775510204001</v>
       </c>
       <c r="M31" t="n">
-        <v>-20.0945716058324</v>
+        <v>-0.0006457743988684</v>
       </c>
       <c r="N31" t="n">
-        <v>-51.2956247695273</v>
+        <v>-27.2710303633649</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3268,46 +3268,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>0.9999999992676279</v>
       </c>
       <c r="G32" t="n">
-        <v>0.602484472049689</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.409937888198758</v>
+        <v>0.908536585365854</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.005</v>
+        <v>0.2995</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.0019637848426129</v>
+        <v>-0.0131484226817703</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.0031278391362914</v>
+        <v>-0.0174486762690708</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>-0.0100582914145257</v>
       </c>
       <c r="N32" t="n">
-        <v>-39.2756968522582</v>
+        <v>-4.39012443464784</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3359,7 +3359,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3370,35 +3370,35 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>0.974288285748375</v>
       </c>
       <c r="G33" t="n">
-        <v>0.269736842105263</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.177631578947368</v>
+        <v>0.567251461988304</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.004</v>
+        <v>7.62</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0009274958144917</v>
+        <v>0.0130446428571428</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0011370632998962</v>
+        <v>0.0017625961505476</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.0007322248349894</v>
+        <v>0.024351027250121</v>
       </c>
       <c r="N33" t="n">
-        <v>-23.1873953622927</v>
+        <v>0.171189538807649</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3436,11 +3436,7 @@
           <t>Whau_1b</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3450,7 +3446,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3465,31 +3461,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.9999999904367231</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.908496732026144</v>
+        <v>0.764367816091954</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.318</v>
+        <v>0.345</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.0152538824763903</v>
+        <v>-0.0285807740849811</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0203030119443396</v>
+        <v>-0.0338111264025842</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.0104938171482918</v>
+        <v>-0.0221628592631287</v>
       </c>
       <c r="N34" t="n">
-        <v>-4.796818388802</v>
+        <v>-8.284282343472769</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3529,7 +3525,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3541,14 +3537,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3556,31 +3552,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.995980236386269</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.595238095238095</v>
+        <v>0.5344827586206899</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>7.615</v>
+        <v>0.4</v>
       </c>
       <c r="K35" t="n">
-        <v>0.017737443862787</v>
+        <v>-0.0301030219780219</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0071292554147672</v>
+        <v>-0.0365972384011707</v>
       </c>
       <c r="M35" t="n">
-        <v>0.030472935134128</v>
+        <v>-0.0236664346806433</v>
       </c>
       <c r="N35" t="n">
-        <v>0.23292769353627</v>
+        <v>-7.52575549450549</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3589,7 +3585,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3618,7 +3614,11 @@
           <t>Whau_1b</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3628,14 +3628,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -3649,25 +3649,25 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.761627906976744</v>
+        <v>0.5</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.357</v>
+        <v>0.0445</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.0308144690599183</v>
+        <v>-0.004262434009447</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0361492720479953</v>
+        <v>-0.0052699800706427</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.0253112785610267</v>
+        <v>-0.0031876499317142</v>
       </c>
       <c r="N36" t="n">
-        <v>-8.631503938352459</v>
+        <v>-9.578503392015881</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3719,14 +3719,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>15</v>
       </c>
       <c r="D37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -3734,31 +3734,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>0.994555100253203</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.552325581395349</v>
+        <v>0.804597701149425</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.4275</v>
+        <v>1.655</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.0347857142857143</v>
+        <v>-0.0314193548387097</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0408932316705052</v>
+        <v>-0.0571386828920896</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.0290804140127389</v>
+        <v>-0.0100211982060527</v>
       </c>
       <c r="N37" t="n">
-        <v>-8.13700918964077</v>
+        <v>-1.89845044342657</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3797,188 +3797,6 @@
         </is>
       </c>
       <c r="W37" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Waitangi at d/s Waiouru STP</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Total Phosphorus</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>15</v>
-      </c>
-      <c r="D38" t="b">
-        <v>0</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.523255813953488</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.0495</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-0.0050812297018643</v>
-      </c>
-      <c r="L38" t="n">
-        <v>-0.0060350944727772</v>
-      </c>
-      <c r="M38" t="n">
-        <v>-0.0041732356511212</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-10.2651105088169</v>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>Virtually certain improving</t>
-        </is>
-      </c>
-      <c r="Q38" t="n">
-        <v>1828659.395</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5628533.029</v>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>Whangaehu</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>Upper Whangaehu</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>Whau_1b</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Waitangi at d/s Waiouru STP</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Turbidity</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>15</v>
-      </c>
-      <c r="D39" t="b">
-        <v>1</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0.997448377159607</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.825581395348837</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.665</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-0.0398630688144321</v>
-      </c>
-      <c r="L39" t="n">
-        <v>-0.0643318887383698</v>
-      </c>
-      <c r="M39" t="n">
-        <v>-0.0148857191570602</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-2.3941783071731</v>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>Virtually certain improving</t>
-        </is>
-      </c>
-      <c r="Q39" t="n">
-        <v>1828659.395</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5628533.029</v>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>Whangaehu</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>Upper Whangaehu</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>Whau_1b</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
         <is>
           <t>NTU/FNU</t>
         </is>

--- a/trend_results/Rivers/WaitangiatdsWaiouruSTP_4ec3c3c8aa.xlsx
+++ b/trend_results/Rivers/WaitangiatdsWaiouruSTP_4ec3c3c8aa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="63">
   <si>
     <t>site name</t>
   </si>
@@ -127,52 +127,55 @@
     <t>ok</t>
   </si>
   <si>
-    <t>&lt; 5 Non-censored values</t>
+    <t>WARNING: Sen slope based on two censored values</t>
   </si>
   <si>
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on two censored values</t>
+    <t>WARNING: Sen slope based on tied non-censored values</t>
   </si>
   <si>
     <t>Impact</t>
   </si>
   <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Very likely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain increasing</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely increasing</t>
+  </si>
+  <si>
     <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
-  </si>
-  <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Not Analysed improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Virtually certain increasing</t>
-  </si>
-  <si>
-    <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely likely increasing</t>
   </si>
   <si>
     <t>Ruapehu District</t>
@@ -651,31 +654,31 @@
         <v>36</v>
       </c>
       <c r="F2">
-        <v>0.97432583371837</v>
+        <v>0.882160043285481</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.779661016949153</v>
+        <v>0.8</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K2">
-        <v>-3.35545407137567</v>
+        <v>-1.43856112833483</v>
       </c>
       <c r="L2">
-        <v>-7.54522509455267</v>
+        <v>-4.91872237898996</v>
       </c>
       <c r="M2">
-        <v>-1.07583213943017</v>
+        <v>0.694943595604679</v>
       </c>
       <c r="N2">
-        <v>-17.6602845861877</v>
+        <v>-11.0658548333448</v>
       </c>
       <c r="O2" t="s">
         <v>40</v>
@@ -690,19 +693,19 @@
         <v>5628533.029</v>
       </c>
       <c r="S2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -722,7 +725,7 @@
         <v>36</v>
       </c>
       <c r="F3">
-        <v>0.865596628226167</v>
+        <v>0.208702717565428</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -734,19 +737,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.265</v>
+        <v>10.205</v>
       </c>
       <c r="K3">
-        <v>0.0325275875440347</v>
+        <v>-0.0151498868778277</v>
       </c>
       <c r="L3">
-        <v>-0.0100650221456961</v>
+        <v>-0.073338582261552</v>
       </c>
       <c r="M3">
-        <v>0.06990430622009559</v>
+        <v>0.009980394258988799</v>
       </c>
       <c r="N3">
-        <v>0.316878592732924</v>
+        <v>-0.148455530404975</v>
       </c>
       <c r="O3" t="s">
         <v>40</v>
@@ -761,19 +764,19 @@
         <v>5628533.029</v>
       </c>
       <c r="S3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -793,31 +796,31 @@
         <v>36</v>
       </c>
       <c r="F4">
-        <v>0.161440385770985</v>
+        <v>0.0021055505461227</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.576271186440678</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03</v>
+        <v>0.028</v>
       </c>
       <c r="K4">
-        <v>0.0011161191749427</v>
+        <v>0.0024082417582417</v>
       </c>
       <c r="L4">
-        <v>-0.0007195087066618</v>
+        <v>0.0010565300407441</v>
       </c>
       <c r="M4">
-        <v>0.0032474947572889</v>
+        <v>0.0044777057577156</v>
       </c>
       <c r="N4">
-        <v>3.72039724980901</v>
+        <v>8.60086342229199</v>
       </c>
       <c r="O4" t="s">
         <v>40</v>
@@ -832,19 +835,19 @@
         <v>5628533.029</v>
       </c>
       <c r="S4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -864,37 +867,37 @@
         <v>36</v>
       </c>
       <c r="F5">
-        <v>0.009964328959578101</v>
+        <v>0.0015588449175607</v>
       </c>
       <c r="G5">
-        <v>0.101694915254237</v>
+        <v>0.0508474576271186</v>
       </c>
       <c r="H5">
-        <v>0.355932203389831</v>
+        <v>0.491525423728814</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="K5">
-        <v>2.82046332046332</v>
+        <v>5.39602787456446</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2.07013676764678</v>
       </c>
       <c r="M5">
-        <v>5.64092664092664</v>
+        <v>9.579351532579601</v>
       </c>
       <c r="N5">
-        <v>17.6278957528958</v>
+        <v>25.6953708312593</v>
       </c>
       <c r="O5" t="s">
         <v>40</v>
       </c>
       <c r="P5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q5">
         <v>1828659.395</v>
@@ -903,19 +906,19 @@
         <v>5628533.029</v>
       </c>
       <c r="S5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -934,20 +937,38 @@
       <c r="E6" t="s">
         <v>37</v>
       </c>
+      <c r="F6">
+        <v>0.0010390405822134</v>
+      </c>
       <c r="G6">
-        <v>0.944444444444444</v>
+        <v>0.912280701754386</v>
       </c>
       <c r="H6">
-        <v>0.0740740740740741</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
+      <c r="J6">
+        <v>0.005</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
       <c r="O6" t="s">
         <v>40</v>
       </c>
       <c r="P6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q6">
         <v>1828659.395</v>
@@ -956,19 +977,19 @@
         <v>5628533.029</v>
       </c>
       <c r="S6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -988,10 +1009,10 @@
         <v>38</v>
       </c>
       <c r="F7">
-        <v>0.999031230761441</v>
+        <v>0.998998360818803</v>
       </c>
       <c r="G7">
-        <v>0.593220338983051</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="H7">
         <v>0.11864406779661</v>
@@ -1018,7 +1039,7 @@
         <v>40</v>
       </c>
       <c r="P7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q7">
         <v>1828659.395</v>
@@ -1027,19 +1048,19 @@
         <v>5628533.029</v>
       </c>
       <c r="S7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1059,37 +1080,37 @@
         <v>36</v>
       </c>
       <c r="F8">
-        <v>0.786360546914012</v>
+        <v>0.174072312476531</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.966101694915254</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.267</v>
+        <v>0.268</v>
       </c>
       <c r="K8">
-        <v>-0.0060206043956044</v>
+        <v>0.0062564594122982</v>
       </c>
       <c r="L8">
-        <v>-0.0157307860922318</v>
+        <v>-0.0046758024142764</v>
       </c>
       <c r="M8">
-        <v>0.009136745624981299</v>
+        <v>0.014445316613401</v>
       </c>
       <c r="N8">
-        <v>-2.25490801333498</v>
+        <v>2.33449978070829</v>
       </c>
       <c r="O8" t="s">
         <v>40</v>
       </c>
       <c r="P8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q8">
         <v>1828659.395</v>
@@ -1098,19 +1119,19 @@
         <v>5628533.029</v>
       </c>
       <c r="S8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1130,7 +1151,7 @@
         <v>36</v>
       </c>
       <c r="F9">
-        <v>0.744624496625872</v>
+        <v>0.422843825921084</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1145,22 +1166,22 @@
         <v>7.635</v>
       </c>
       <c r="K9">
-        <v>0.0156535714285713</v>
+        <v>-0.0035495626822156</v>
       </c>
       <c r="L9">
-        <v>-0.0217487939586533</v>
+        <v>-0.0381166417759959</v>
       </c>
       <c r="M9">
-        <v>0.0627458440494591</v>
+        <v>0.0307144395578846</v>
       </c>
       <c r="N9">
-        <v>0.205023856300869</v>
+        <v>-0.0464906703630081</v>
       </c>
       <c r="O9" t="s">
         <v>40</v>
       </c>
       <c r="P9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q9">
         <v>1828659.395</v>
@@ -1169,16 +1190,16 @@
         <v>5628533.029</v>
       </c>
       <c r="S9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1198,37 +1219,37 @@
         <v>36</v>
       </c>
       <c r="F10">
-        <v>0.786360546914012</v>
+        <v>0.109935855314351</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.88135593220339</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.275</v>
+        <v>0.276</v>
       </c>
       <c r="K10">
-        <v>-0.004243092621664</v>
+        <v>0.0104070447409733</v>
       </c>
       <c r="L10">
-        <v>-0.015232906033336</v>
+        <v>-0.0031427154279102</v>
       </c>
       <c r="M10">
-        <v>0.0079660926083105</v>
+        <v>0.0195415432312532</v>
       </c>
       <c r="N10">
-        <v>-1.5429427715142</v>
+        <v>3.77066838441062</v>
       </c>
       <c r="O10" t="s">
         <v>40</v>
       </c>
       <c r="P10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q10">
         <v>1828659.395</v>
@@ -1237,19 +1258,19 @@
         <v>5628533.029</v>
       </c>
       <c r="S10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1269,37 +1290,37 @@
         <v>36</v>
       </c>
       <c r="F11">
-        <v>0.385345292220081</v>
+        <v>0.06381681469689621</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.491525423728814</v>
+        <v>0.508474576271186</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="K11">
-        <v>0.0041464318211361</v>
+        <v>0.0112886332417583</v>
       </c>
       <c r="L11">
-        <v>-0.0066895604395604</v>
+        <v>-0.0011179218780176</v>
       </c>
       <c r="M11">
-        <v>0.0148282594178525</v>
+        <v>0.0239356315875454</v>
       </c>
       <c r="N11">
-        <v>1.21953877092238</v>
+        <v>3.2253237833595</v>
       </c>
       <c r="O11" t="s">
         <v>40</v>
       </c>
       <c r="P11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q11">
         <v>1828659.395</v>
@@ -1308,19 +1329,19 @@
         <v>5628533.029</v>
       </c>
       <c r="S11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1340,7 +1361,7 @@
         <v>36</v>
       </c>
       <c r="F12">
-        <v>0.0023811548168652</v>
+        <v>0.0067960202449555</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1355,22 +1376,22 @@
         <v>0.037</v>
       </c>
       <c r="K12">
-        <v>0.0030693277310924</v>
+        <v>0.0025146299483648</v>
       </c>
       <c r="L12">
-        <v>0.0012532978628899</v>
+        <v>0.0007918488391088</v>
       </c>
       <c r="M12">
-        <v>0.0053765576257108</v>
+        <v>0.005223460628418</v>
       </c>
       <c r="N12">
-        <v>8.295480354303891</v>
+        <v>6.79629715774294</v>
       </c>
       <c r="O12" t="s">
         <v>40</v>
       </c>
       <c r="P12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q12">
         <v>1828659.395</v>
@@ -1379,19 +1400,19 @@
         <v>5628533.029</v>
       </c>
       <c r="S12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1411,37 +1432,37 @@
         <v>36</v>
       </c>
       <c r="F13">
-        <v>0.307265658568189</v>
+        <v>0.946190638390832</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.88135593220339</v>
+        <v>0.864406779661017</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="K13">
-        <v>0.0282046332046332</v>
+        <v>-0.102646370023419</v>
       </c>
       <c r="L13">
-        <v>-0.0769759895546033</v>
+        <v>-0.205292740046838</v>
       </c>
       <c r="M13">
-        <v>0.150780202118909</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.70937170937171</v>
+        <v>-6.84309133489461</v>
       </c>
       <c r="O13" t="s">
         <v>40</v>
       </c>
       <c r="P13" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q13">
         <v>1828659.395</v>
@@ -1450,19 +1471,19 @@
         <v>5628533.029</v>
       </c>
       <c r="S13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1482,37 +1503,37 @@
         <v>36</v>
       </c>
       <c r="F14">
-        <v>0.999571461746546</v>
+        <v>0.99469407120437</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.637931034482759</v>
+        <v>0.649122807017544</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>25.5</v>
+        <v>19.5</v>
       </c>
       <c r="K14">
-        <v>-2.75944368131868</v>
+        <v>-1.40140009384386</v>
       </c>
       <c r="L14">
-        <v>-4.24910636298973</v>
+        <v>-2.73189402592838</v>
       </c>
       <c r="M14">
-        <v>-1.37036541094292</v>
+        <v>-0.499626613479944</v>
       </c>
       <c r="N14">
-        <v>-10.8213477698772</v>
+        <v>-7.18666714791724</v>
       </c>
       <c r="O14" t="s">
         <v>40</v>
       </c>
       <c r="P14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q14">
         <v>1828659.395</v>
@@ -1521,19 +1542,19 @@
         <v>5628533.029</v>
       </c>
       <c r="S14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1553,13 +1574,13 @@
         <v>36</v>
       </c>
       <c r="F15">
-        <v>0.998535759079714</v>
+        <v>0.990711994197043</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.767241379310345</v>
+        <v>0.775862068965517</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1568,16 +1589,16 @@
         <v>10.165</v>
       </c>
       <c r="K15">
-        <v>0.0342129779467108</v>
+        <v>0.0268755812451565</v>
       </c>
       <c r="L15">
-        <v>0.0199993578778268</v>
+        <v>0.009235965292470101</v>
       </c>
       <c r="M15">
-        <v>0.0505754895130353</v>
+        <v>0.0481648351648352</v>
       </c>
       <c r="N15">
-        <v>0.33657627099568</v>
+        <v>0.264393322628199</v>
       </c>
       <c r="O15" t="s">
         <v>40</v>
@@ -1592,19 +1613,19 @@
         <v>5628533.029</v>
       </c>
       <c r="S15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1621,40 +1642,40 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F16">
-        <v>0.977469379510874</v>
+        <v>0.5256576212170569</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.394957983193277</v>
+        <v>0.378151260504202</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.033</v>
+        <v>0.031</v>
       </c>
       <c r="K16">
-        <v>-0.0007999342969776</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>-0.001458970104763</v>
+        <v>-0.0005882613322735</v>
       </c>
       <c r="M16">
-        <v>-0.0001205812934978</v>
+        <v>0.0005733908948194</v>
       </c>
       <c r="N16">
-        <v>-2.42404332417473</v>
+        <v>0</v>
       </c>
       <c r="O16" t="s">
         <v>40</v>
       </c>
       <c r="P16" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="Q16">
         <v>1828659.395</v>
@@ -1663,19 +1684,19 @@
         <v>5628533.029</v>
       </c>
       <c r="S16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,13 +1716,13 @@
         <v>36</v>
       </c>
       <c r="F17">
-        <v>0.931787290989462</v>
+        <v>0.170042304091532</v>
       </c>
       <c r="G17">
         <v>0.0672268907563025</v>
       </c>
       <c r="H17">
-        <v>0.310924369747899</v>
+        <v>0.369747899159664</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1710,22 +1731,22 @@
         <v>21</v>
       </c>
       <c r="K17">
-        <v>-0.7147749510763211</v>
+        <v>0.198775510204082</v>
       </c>
       <c r="L17">
-        <v>-2.41607367964329</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.33189400076278</v>
       </c>
       <c r="N17">
-        <v>-3.40369024322058</v>
+        <v>0.946550048590866</v>
       </c>
       <c r="O17" t="s">
         <v>40</v>
       </c>
       <c r="P17" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="Q17">
         <v>1828659.395</v>
@@ -1734,19 +1755,19 @@
         <v>5628533.029</v>
       </c>
       <c r="S17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1763,16 +1784,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F18">
-        <v>0.997514565261833</v>
+        <v>0.0180609975483261</v>
       </c>
       <c r="G18">
-        <v>0.9090909090909089</v>
+        <v>0.936363636363636</v>
       </c>
       <c r="H18">
-        <v>0.109090909090909</v>
+        <v>0.0818181818181818</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -1796,7 +1817,7 @@
         <v>40</v>
       </c>
       <c r="P18" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q18">
         <v>1828659.395</v>
@@ -1805,19 +1826,19 @@
         <v>5628533.029</v>
       </c>
       <c r="S18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,37 +1858,37 @@
         <v>38</v>
       </c>
       <c r="F19">
-        <v>0.99999999699242</v>
+        <v>0.999999702956625</v>
       </c>
       <c r="G19">
-        <v>0.436974789915966</v>
+        <v>0.529411764705882</v>
       </c>
       <c r="H19">
-        <v>0.117647058823529</v>
+        <v>0.100840336134454</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="K19">
-        <v>-0.0002790297937356</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>-0.0003893923240938</v>
+        <v>-0.0002183203825463</v>
       </c>
       <c r="M19">
-        <v>-0.0001198462557912</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>-13.9514896867838</v>
+        <v>0</v>
       </c>
       <c r="O19" t="s">
         <v>40</v>
       </c>
       <c r="P19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q19">
         <v>1828659.395</v>
@@ -1876,19 +1897,19 @@
         <v>5628533.029</v>
       </c>
       <c r="S19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1908,37 +1929,37 @@
         <v>36</v>
       </c>
       <c r="F20">
-        <v>0.661930988577049</v>
+        <v>0.0379167278661952</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.899159663865546</v>
+        <v>0.865546218487395</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.266</v>
+        <v>0.267</v>
       </c>
       <c r="K20">
-        <v>-0.0010435714285714</v>
+        <v>0.0043981937602627</v>
       </c>
       <c r="L20">
-        <v>-0.0052179057494635</v>
+        <v>0.0003370265886612</v>
       </c>
       <c r="M20">
-        <v>0.0039486569775627</v>
+        <v>0.0082281730425656</v>
       </c>
       <c r="N20">
-        <v>-0.392320085929107</v>
+        <v>1.64726358062274</v>
       </c>
       <c r="O20" t="s">
         <v>40</v>
       </c>
       <c r="P20" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q20">
         <v>1828659.395</v>
@@ -1947,19 +1968,19 @@
         <v>5628533.029</v>
       </c>
       <c r="S20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1979,7 +2000,7 @@
         <v>36</v>
       </c>
       <c r="F21">
-        <v>0.260789746214135</v>
+        <v>0.297177152263779</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1994,22 +2015,22 @@
         <v>7.64</v>
       </c>
       <c r="K21">
-        <v>-0.004665754454767</v>
+        <v>-0.0035375709163974</v>
       </c>
       <c r="L21">
-        <v>-0.0167881931819881</v>
+        <v>-0.0154616060736573</v>
       </c>
       <c r="M21">
-        <v>0.007986859925224001</v>
+        <v>0.0087941412520064</v>
       </c>
       <c r="N21">
-        <v>-0.0610700844864791</v>
+        <v>-0.0463032842460399</v>
       </c>
       <c r="O21" t="s">
         <v>40</v>
       </c>
       <c r="P21" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="Q21">
         <v>1828659.395</v>
@@ -2018,16 +2039,16 @@
         <v>5628533.029</v>
       </c>
       <c r="S21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2047,7 +2068,7 @@
         <v>36</v>
       </c>
       <c r="F22">
-        <v>0.783576889989138</v>
+        <v>0.0234628305079226</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -2059,25 +2080,25 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.276</v>
+        <v>0.275</v>
       </c>
       <c r="K22">
-        <v>-0.0026758241758241</v>
+        <v>0.0050171703296703</v>
       </c>
       <c r="L22">
-        <v>-0.0069988743651127</v>
+        <v>0.0004042010313374</v>
       </c>
       <c r="M22">
-        <v>0.0023426793355441</v>
+        <v>0.0087773399607948</v>
       </c>
       <c r="N22">
-        <v>-0.969501512979775</v>
+        <v>1.82442557442557</v>
       </c>
       <c r="O22" t="s">
         <v>40</v>
       </c>
       <c r="P22" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="Q22">
         <v>1828659.395</v>
@@ -2086,19 +2107,19 @@
         <v>5628533.029</v>
       </c>
       <c r="S22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2115,40 +2136,40 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F23">
-        <v>0.992124854201927</v>
+        <v>0.479034474946757</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.453781512605042</v>
+        <v>0.361344537815126</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="K23">
-        <v>-0.0060496894409937</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>-0.0100343406593406</v>
+        <v>-0.0033428069486761</v>
       </c>
       <c r="M23">
-        <v>-0.0024411773202924</v>
+        <v>0.0042892032906972</v>
       </c>
       <c r="N23">
-        <v>-1.68046928916494</v>
+        <v>0</v>
       </c>
       <c r="O23" t="s">
         <v>40</v>
       </c>
       <c r="P23" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Q23">
         <v>1828659.395</v>
@@ -2157,19 +2178,19 @@
         <v>5628533.029</v>
       </c>
       <c r="S23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2186,34 +2207,34 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F24">
-        <v>0.927871976854416</v>
+        <v>0.557597510588232</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.394957983193277</v>
+        <v>0.361344537815126</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.039</v>
+        <v>0.038</v>
       </c>
       <c r="K24">
-        <v>-0.000479802955665</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>-0.0010096865823004</v>
+        <v>-0.0005168747281017</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.0004700772200772</v>
       </c>
       <c r="N24">
-        <v>-1.23026398888468</v>
+        <v>0</v>
       </c>
       <c r="O24" t="s">
         <v>40</v>
@@ -2228,19 +2249,19 @@
         <v>5628533.029</v>
       </c>
       <c r="S24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2260,37 +2281,37 @@
         <v>36</v>
       </c>
       <c r="F25">
-        <v>0.265317840615893</v>
+        <v>0.5312475513668951</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.857142857142857</v>
+        <v>0.831932773109244</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="K25">
-        <v>0.0179926108374384</v>
+        <v>-0.0024965823650034</v>
       </c>
       <c r="L25">
-        <v>-0.0232353504149363</v>
+        <v>-0.0488318581884279</v>
       </c>
       <c r="M25">
-        <v>0.05229026914896</v>
+        <v>0.0411597064302768</v>
       </c>
       <c r="N25">
-        <v>1.19950738916256</v>
+        <v>-0.170998792123522</v>
       </c>
       <c r="O25" t="s">
         <v>40</v>
       </c>
       <c r="P25" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="Q25">
         <v>1828659.395</v>
@@ -2299,19 +2320,19 @@
         <v>5628533.029</v>
       </c>
       <c r="S25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W25" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2331,37 +2352,37 @@
         <v>36</v>
       </c>
       <c r="F26">
-        <v>0.999999998235672</v>
+        <v>0.9999999919282579</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.596491228070175</v>
+        <v>0.587209302325581</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>35.5</v>
+        <v>30.5</v>
       </c>
       <c r="K26">
-        <v>-3.56265374103177</v>
+        <v>-3.0103021978022</v>
       </c>
       <c r="L26">
-        <v>-4.84029598144007</v>
+        <v>-4.13543183350551</v>
       </c>
       <c r="M26">
-        <v>-2.62731723381983</v>
+        <v>-2.07194472310095</v>
       </c>
       <c r="N26">
-        <v>-10.0356443409346</v>
+        <v>-9.869843271482621</v>
       </c>
       <c r="O26" t="s">
         <v>40</v>
       </c>
       <c r="P26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q26">
         <v>1828659.395</v>
@@ -2370,19 +2391,19 @@
         <v>5628533.029</v>
       </c>
       <c r="S26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T26" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2402,37 +2423,37 @@
         <v>36</v>
       </c>
       <c r="F27">
-        <v>0.991826562257522</v>
+        <v>0.983468894648191</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.70414201183432</v>
+        <v>0.695906432748538</v>
       </c>
       <c r="I27">
         <v>0</v>
       </c>
       <c r="J27">
-        <v>10.14</v>
+        <v>10.13</v>
       </c>
       <c r="K27">
-        <v>0.0240646386135946</v>
+        <v>0.0209512428298278</v>
       </c>
       <c r="L27">
-        <v>0.0083153604022582</v>
+        <v>0.0049899146496848</v>
       </c>
       <c r="M27">
-        <v>0.0394888339319874</v>
+        <v>0.0350474834229997</v>
       </c>
       <c r="N27">
-        <v>0.237323852205075</v>
+        <v>0.20682371993907</v>
       </c>
       <c r="O27" t="s">
         <v>40</v>
       </c>
       <c r="P27" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q27">
         <v>1828659.395</v>
@@ -2441,19 +2462,19 @@
         <v>5628533.029</v>
       </c>
       <c r="S27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2473,37 +2494,37 @@
         <v>36</v>
       </c>
       <c r="F28">
-        <v>0.999999999999998</v>
+        <v>0.999999999998715</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.431034482758621</v>
+        <v>0.425287356321839</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="K28">
-        <v>-0.0030941470927993</v>
+        <v>-0.0024269102990033</v>
       </c>
       <c r="L28">
-        <v>-0.0037222309756264</v>
+        <v>-0.0030051599041346</v>
       </c>
       <c r="M28">
-        <v>-0.0024902884974982</v>
+        <v>-0.0018551522647072</v>
       </c>
       <c r="N28">
-        <v>-8.142492349472059</v>
+        <v>-6.5592170243333</v>
       </c>
       <c r="O28" t="s">
         <v>40</v>
       </c>
       <c r="P28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q28">
         <v>1828659.395</v>
@@ -2512,19 +2533,19 @@
         <v>5628533.029</v>
       </c>
       <c r="S28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2541,40 +2562,40 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.999999999995975</v>
       </c>
       <c r="G29">
         <v>0.0459770114942529</v>
       </c>
       <c r="H29">
-        <v>0.505747126436782</v>
+        <v>0.5344827586206899</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29">
-        <v>48</v>
+        <v>39.1</v>
       </c>
       <c r="K29">
-        <v>-19.2236842105263</v>
+        <v>-11.1200234192037</v>
       </c>
       <c r="L29">
-        <v>-28.0923935780447</v>
+        <v>-15.7321832399408</v>
       </c>
       <c r="M29">
-        <v>-13.6463743055263</v>
+        <v>-7.6727008460138</v>
       </c>
       <c r="N29">
-        <v>-40.0493421052632</v>
+        <v>-28.4399575938715</v>
       </c>
       <c r="O29" t="s">
         <v>40</v>
       </c>
       <c r="P29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q29">
         <v>1828659.395</v>
@@ -2583,19 +2604,19 @@
         <v>5628533.029</v>
       </c>
       <c r="S29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U29" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2612,16 +2633,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.999999999999998</v>
       </c>
       <c r="G30">
-        <v>0.652439024390244</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="H30">
-        <v>0.359756097560976</v>
+        <v>0.315151515151515</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -2633,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>-0.0017147793902369</v>
+        <v>0</v>
       </c>
       <c r="M30">
         <v>0</v>
@@ -2645,7 +2666,7 @@
         <v>40</v>
       </c>
       <c r="P30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q30">
         <v>1828659.395</v>
@@ -2654,19 +2675,19 @@
         <v>5628533.029</v>
       </c>
       <c r="S30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T30" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2689,10 +2710,10 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.323170731707317</v>
+        <v>0.367816091954023</v>
       </c>
       <c r="H31">
-        <v>0.164634146341463</v>
+        <v>0.155172413793103</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -2701,22 +2722,22 @@
         <v>0.003</v>
       </c>
       <c r="K31">
-        <v>-0.0008181309109009</v>
+        <v>-0.0006453180212014</v>
       </c>
       <c r="L31">
-        <v>-0.0009938775510204001</v>
+        <v>-0.0008027472527472</v>
       </c>
       <c r="M31">
-        <v>-0.0006457743988684</v>
+        <v>-0.0005212262156159999</v>
       </c>
       <c r="N31">
-        <v>-27.2710303633649</v>
+        <v>-21.5106007067138</v>
       </c>
       <c r="O31" t="s">
         <v>40</v>
       </c>
       <c r="P31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q31">
         <v>1828659.395</v>
@@ -2725,19 +2746,19 @@
         <v>5628533.029</v>
       </c>
       <c r="S31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U31" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2757,37 +2778,37 @@
         <v>36</v>
       </c>
       <c r="F32">
-        <v>0.9999999992676279</v>
+        <v>0.999999284612008</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0.908536585365854</v>
+        <v>0.8908045977011489</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0.2995</v>
+        <v>0.295</v>
       </c>
       <c r="K32">
-        <v>-0.0131484226817703</v>
+        <v>-0.0097689450222882</v>
       </c>
       <c r="L32">
-        <v>-0.0174486762690708</v>
+        <v>-0.012896495116255</v>
       </c>
       <c r="M32">
-        <v>-0.0100582914145257</v>
+        <v>-0.0066850413546113</v>
       </c>
       <c r="N32">
-        <v>-4.39012443464784</v>
+        <v>-3.31150678721636</v>
       </c>
       <c r="O32" t="s">
         <v>40</v>
       </c>
       <c r="P32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q32">
         <v>1828659.395</v>
@@ -2796,19 +2817,19 @@
         <v>5628533.029</v>
       </c>
       <c r="S32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2828,37 +2849,37 @@
         <v>36</v>
       </c>
       <c r="F33">
-        <v>0.974288285748375</v>
+        <v>0.600880785929194</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.567251461988304</v>
+        <v>0.517441860465116</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>7.62</v>
+        <v>7.63</v>
       </c>
       <c r="K33">
-        <v>0.0130446428571428</v>
+        <v>0.0010479285021197</v>
       </c>
       <c r="L33">
-        <v>0.0017625961505476</v>
+        <v>-0.0070511583011581</v>
       </c>
       <c r="M33">
-        <v>0.024351027250121</v>
+        <v>0.0108130194605899</v>
       </c>
       <c r="N33">
-        <v>0.171189538807649</v>
+        <v>0.0137343185074677</v>
       </c>
       <c r="O33" t="s">
         <v>40</v>
       </c>
       <c r="P33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="Q33">
         <v>1828659.395</v>
@@ -2867,16 +2888,16 @@
         <v>5628533.029</v>
       </c>
       <c r="S33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T33" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2896,37 +2917,37 @@
         <v>36</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.999999998957835</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0.764367816091954</v>
+        <v>0.775862068965517</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.345</v>
+        <v>0.33395</v>
       </c>
       <c r="K34">
-        <v>-0.0285807740849811</v>
+        <v>-0.0180618131868131</v>
       </c>
       <c r="L34">
-        <v>-0.0338111264025842</v>
+        <v>-0.0236052158711544</v>
       </c>
       <c r="M34">
-        <v>-0.0221628592631287</v>
+        <v>-0.0141667314762328</v>
       </c>
       <c r="N34">
-        <v>-8.284282343472769</v>
+        <v>-5.40853816044712</v>
       </c>
       <c r="O34" t="s">
         <v>40</v>
       </c>
       <c r="P34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q34">
         <v>1828659.395</v>
@@ -2935,19 +2956,19 @@
         <v>5628533.029</v>
       </c>
       <c r="S34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U34" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2967,37 +2988,37 @@
         <v>36</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.999999999999637</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.5344827586206899</v>
+        <v>0.488505747126437</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="K35">
-        <v>-0.0301030219780219</v>
+        <v>-0.0201371459031374</v>
       </c>
       <c r="L35">
-        <v>-0.0365972384011707</v>
+        <v>-0.0270231167917338</v>
       </c>
       <c r="M35">
-        <v>-0.0236664346806433</v>
+        <v>-0.0174351534198417</v>
       </c>
       <c r="N35">
-        <v>-7.52575549450549</v>
+        <v>-5.1633707443942</v>
       </c>
       <c r="O35" t="s">
         <v>40</v>
       </c>
       <c r="P35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q35">
         <v>1828659.395</v>
@@ -3006,19 +3027,19 @@
         <v>5628533.029</v>
       </c>
       <c r="S35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3038,37 +3059,37 @@
         <v>36</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.999999999998703</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.5</v>
+        <v>0.459770114942529</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.0445</v>
+        <v>0.042</v>
       </c>
       <c r="K36">
-        <v>-0.004262434009447</v>
+        <v>-0.0026660583941605</v>
       </c>
       <c r="L36">
-        <v>-0.0052699800706427</v>
+        <v>-0.0035887184702195</v>
       </c>
       <c r="M36">
-        <v>-0.0031876499317142</v>
+        <v>-0.0019195896121612</v>
       </c>
       <c r="N36">
-        <v>-9.578503392015881</v>
+        <v>-6.34775808133473</v>
       </c>
       <c r="O36" t="s">
         <v>40</v>
       </c>
       <c r="P36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q36">
         <v>1828659.395</v>
@@ -3077,19 +3098,19 @@
         <v>5628533.029</v>
       </c>
       <c r="S36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T36" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W36" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3109,37 +3130,37 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>0.994555100253203</v>
+        <v>0.984489146477994</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.804597701149425</v>
+        <v>0.793103448275862</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>1.655</v>
+        <v>1.505</v>
       </c>
       <c r="K37">
-        <v>-0.0314193548387097</v>
+        <v>-0.0277545592705167</v>
       </c>
       <c r="L37">
-        <v>-0.0571386828920896</v>
+        <v>-0.0482470507831188</v>
       </c>
       <c r="M37">
-        <v>-0.0100211982060527</v>
+        <v>-0.0061465502126878</v>
       </c>
       <c r="N37">
-        <v>-1.89845044342657</v>
+        <v>-1.84415676216058</v>
       </c>
       <c r="O37" t="s">
         <v>40</v>
       </c>
       <c r="P37" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="Q37">
         <v>1828659.395</v>
@@ -3148,19 +3169,19 @@
         <v>5628533.029</v>
       </c>
       <c r="S37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="U37" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="W37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
